--- a/reports/air_import_employee_kpis/Gulcin ERDIR.xlsx
+++ b/reports/air_import_employee_kpis/Gulcin ERDIR.xlsx
@@ -513,31 +513,31 @@
         <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>14427.8</v>
+        <v>14455</v>
       </c>
       <c r="F2" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G2" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H2" t="n">
-        <v>77.18518518518519</v>
+        <v>77.14814814814815</v>
       </c>
       <c r="I2" t="n">
-        <v>39977.61225925926</v>
+        <v>40668.88888888889</v>
       </c>
       <c r="J2" t="n">
         <v>111</v>
       </c>
       <c r="K2" t="n">
-        <v>106223.78</v>
+        <v>106602</v>
       </c>
       <c r="L2" t="n">
         <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>1877.19</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="3">
@@ -558,31 +558,31 @@
         <v>89</v>
       </c>
       <c r="E3" t="n">
-        <v>23774</v>
+        <v>24320</v>
       </c>
       <c r="F3" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G3" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H3" t="n">
-        <v>77.18518518518519</v>
+        <v>77.14814814814815</v>
       </c>
       <c r="I3" t="n">
-        <v>39977.61225925926</v>
+        <v>40668.88888888889</v>
       </c>
       <c r="J3" t="n">
         <v>111</v>
       </c>
       <c r="K3" t="n">
-        <v>106223.78</v>
+        <v>106602</v>
       </c>
       <c r="L3" t="n">
         <v>7</v>
       </c>
       <c r="M3" t="n">
-        <v>1877.19</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="4">
@@ -603,31 +603,31 @@
         <v>92</v>
       </c>
       <c r="E4" t="n">
-        <v>54443.6</v>
+        <v>59007</v>
       </c>
       <c r="F4" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G4" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H4" t="n">
-        <v>77.18518518518519</v>
+        <v>77.14814814814815</v>
       </c>
       <c r="I4" t="n">
-        <v>39977.61225925926</v>
+        <v>40668.88888888889</v>
       </c>
       <c r="J4" t="n">
         <v>111</v>
       </c>
       <c r="K4" t="n">
-        <v>106223.78</v>
+        <v>106602</v>
       </c>
       <c r="L4" t="n">
         <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>1877.19</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="5">
@@ -648,31 +648,31 @@
         <v>111</v>
       </c>
       <c r="E5" t="n">
-        <v>48110.40000000001</v>
+        <v>48869</v>
       </c>
       <c r="F5" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G5" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H5" t="n">
-        <v>77.18518518518519</v>
+        <v>77.14814814814815</v>
       </c>
       <c r="I5" t="n">
-        <v>39977.61225925926</v>
+        <v>40668.88888888889</v>
       </c>
       <c r="J5" t="n">
         <v>111</v>
       </c>
       <c r="K5" t="n">
-        <v>106223.78</v>
+        <v>106602</v>
       </c>
       <c r="L5" t="n">
         <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>1877.19</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="6">
@@ -693,31 +693,31 @@
         <v>72</v>
       </c>
       <c r="E6" t="n">
-        <v>28473.782</v>
+        <v>29348</v>
       </c>
       <c r="F6" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G6" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H6" t="n">
-        <v>77.18518518518519</v>
+        <v>77.14814814814815</v>
       </c>
       <c r="I6" t="n">
-        <v>39977.61225925926</v>
+        <v>40668.88888888889</v>
       </c>
       <c r="J6" t="n">
         <v>111</v>
       </c>
       <c r="K6" t="n">
-        <v>106223.78</v>
+        <v>106602</v>
       </c>
       <c r="L6" t="n">
         <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>1877.19</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="7">
@@ -738,31 +738,31 @@
         <v>75</v>
       </c>
       <c r="E7" t="n">
-        <v>19270.75</v>
+        <v>19290</v>
       </c>
       <c r="F7" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G7" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H7" t="n">
-        <v>77.18518518518519</v>
+        <v>77.14814814814815</v>
       </c>
       <c r="I7" t="n">
-        <v>39977.61225925926</v>
+        <v>40668.88888888889</v>
       </c>
       <c r="J7" t="n">
         <v>111</v>
       </c>
       <c r="K7" t="n">
-        <v>106223.78</v>
+        <v>106602</v>
       </c>
       <c r="L7" t="n">
         <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>1877.19</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="8">
@@ -783,31 +783,31 @@
         <v>93</v>
       </c>
       <c r="E8" t="n">
-        <v>24755.404</v>
+        <v>24778</v>
       </c>
       <c r="F8" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G8" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H8" t="n">
-        <v>77.18518518518519</v>
+        <v>77.14814814814815</v>
       </c>
       <c r="I8" t="n">
-        <v>39977.61225925926</v>
+        <v>40668.88888888889</v>
       </c>
       <c r="J8" t="n">
         <v>111</v>
       </c>
       <c r="K8" t="n">
-        <v>106223.78</v>
+        <v>106602</v>
       </c>
       <c r="L8" t="n">
         <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>1877.19</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="9">
@@ -828,31 +828,31 @@
         <v>105</v>
       </c>
       <c r="E9" t="n">
-        <v>36864.4</v>
+        <v>37549</v>
       </c>
       <c r="F9" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G9" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H9" t="n">
-        <v>77.18518518518519</v>
+        <v>77.14814814814815</v>
       </c>
       <c r="I9" t="n">
-        <v>39977.61225925926</v>
+        <v>40668.88888888889</v>
       </c>
       <c r="J9" t="n">
         <v>111</v>
       </c>
       <c r="K9" t="n">
-        <v>106223.78</v>
+        <v>106602</v>
       </c>
       <c r="L9" t="n">
         <v>7</v>
       </c>
       <c r="M9" t="n">
-        <v>1877.19</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="10">
@@ -873,31 +873,31 @@
         <v>83</v>
       </c>
       <c r="E10" t="n">
-        <v>19328.78</v>
+        <v>19464</v>
       </c>
       <c r="F10" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G10" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H10" t="n">
-        <v>77.18518518518519</v>
+        <v>77.14814814814815</v>
       </c>
       <c r="I10" t="n">
-        <v>39977.61225925926</v>
+        <v>40668.88888888889</v>
       </c>
       <c r="J10" t="n">
         <v>111</v>
       </c>
       <c r="K10" t="n">
-        <v>106223.78</v>
+        <v>106602</v>
       </c>
       <c r="L10" t="n">
         <v>7</v>
       </c>
       <c r="M10" t="n">
-        <v>1877.19</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="11">
@@ -918,31 +918,31 @@
         <v>91</v>
       </c>
       <c r="E11" t="n">
-        <v>54122.925</v>
+        <v>54221</v>
       </c>
       <c r="F11" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G11" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H11" t="n">
-        <v>77.18518518518519</v>
+        <v>77.14814814814815</v>
       </c>
       <c r="I11" t="n">
-        <v>39977.61225925926</v>
+        <v>40668.88888888889</v>
       </c>
       <c r="J11" t="n">
         <v>111</v>
       </c>
       <c r="K11" t="n">
-        <v>106223.78</v>
+        <v>106602</v>
       </c>
       <c r="L11" t="n">
         <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>1877.19</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="12">
@@ -963,31 +963,31 @@
         <v>87</v>
       </c>
       <c r="E12" t="n">
-        <v>35156.36</v>
+        <v>39558</v>
       </c>
       <c r="F12" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G12" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H12" t="n">
-        <v>77.18518518518519</v>
+        <v>77.14814814814815</v>
       </c>
       <c r="I12" t="n">
-        <v>39977.61225925926</v>
+        <v>40668.88888888889</v>
       </c>
       <c r="J12" t="n">
         <v>111</v>
       </c>
       <c r="K12" t="n">
-        <v>106223.78</v>
+        <v>106602</v>
       </c>
       <c r="L12" t="n">
         <v>7</v>
       </c>
       <c r="M12" t="n">
-        <v>1877.19</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="13">
@@ -1008,31 +1008,31 @@
         <v>70</v>
       </c>
       <c r="E13" t="n">
-        <v>17739.15999999999</v>
+        <v>18478</v>
       </c>
       <c r="F13" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G13" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H13" t="n">
-        <v>77.18518518518519</v>
+        <v>77.14814814814815</v>
       </c>
       <c r="I13" t="n">
-        <v>39977.61225925926</v>
+        <v>40668.88888888889</v>
       </c>
       <c r="J13" t="n">
         <v>111</v>
       </c>
       <c r="K13" t="n">
-        <v>106223.78</v>
+        <v>106602</v>
       </c>
       <c r="L13" t="n">
         <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>1877.19</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="14">
@@ -1053,31 +1053,31 @@
         <v>59</v>
       </c>
       <c r="E14" t="n">
-        <v>19068.65</v>
+        <v>19956</v>
       </c>
       <c r="F14" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G14" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H14" t="n">
-        <v>77.18518518518519</v>
+        <v>77.14814814814815</v>
       </c>
       <c r="I14" t="n">
-        <v>39977.61225925926</v>
+        <v>40668.88888888889</v>
       </c>
       <c r="J14" t="n">
         <v>111</v>
       </c>
       <c r="K14" t="n">
-        <v>106223.78</v>
+        <v>106602</v>
       </c>
       <c r="L14" t="n">
         <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>1877.19</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="15">
@@ -1098,31 +1098,31 @@
         <v>49</v>
       </c>
       <c r="E15" t="n">
-        <v>32885.8</v>
+        <v>32931</v>
       </c>
       <c r="F15" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G15" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H15" t="n">
-        <v>77.18518518518519</v>
+        <v>77.14814814814815</v>
       </c>
       <c r="I15" t="n">
-        <v>39977.61225925926</v>
+        <v>40668.88888888889</v>
       </c>
       <c r="J15" t="n">
         <v>111</v>
       </c>
       <c r="K15" t="n">
-        <v>106223.78</v>
+        <v>106602</v>
       </c>
       <c r="L15" t="n">
         <v>7</v>
       </c>
       <c r="M15" t="n">
-        <v>1877.19</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="16">
@@ -1143,31 +1143,31 @@
         <v>83</v>
       </c>
       <c r="E16" t="n">
-        <v>66535.8</v>
+        <v>67135</v>
       </c>
       <c r="F16" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G16" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H16" t="n">
-        <v>77.18518518518519</v>
+        <v>77.14814814814815</v>
       </c>
       <c r="I16" t="n">
-        <v>39977.61225925926</v>
+        <v>40668.88888888889</v>
       </c>
       <c r="J16" t="n">
         <v>111</v>
       </c>
       <c r="K16" t="n">
-        <v>106223.78</v>
+        <v>106602</v>
       </c>
       <c r="L16" t="n">
         <v>7</v>
       </c>
       <c r="M16" t="n">
-        <v>1877.19</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="17">
@@ -1188,31 +1188,31 @@
         <v>63</v>
       </c>
       <c r="E17" t="n">
-        <v>35913.13</v>
+        <v>36136</v>
       </c>
       <c r="F17" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G17" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H17" t="n">
-        <v>77.18518518518519</v>
+        <v>77.14814814814815</v>
       </c>
       <c r="I17" t="n">
-        <v>39977.61225925926</v>
+        <v>40668.88888888889</v>
       </c>
       <c r="J17" t="n">
         <v>111</v>
       </c>
       <c r="K17" t="n">
-        <v>106223.78</v>
+        <v>106602</v>
       </c>
       <c r="L17" t="n">
         <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>1877.19</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="18">
@@ -1233,31 +1233,31 @@
         <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>1877.19</v>
+        <v>2339</v>
       </c>
       <c r="F18" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G18" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H18" t="n">
-        <v>77.18518518518519</v>
+        <v>77.14814814814815</v>
       </c>
       <c r="I18" t="n">
-        <v>39977.61225925926</v>
+        <v>40668.88888888889</v>
       </c>
       <c r="J18" t="n">
         <v>111</v>
       </c>
       <c r="K18" t="n">
-        <v>106223.78</v>
+        <v>106602</v>
       </c>
       <c r="L18" t="n">
         <v>7</v>
       </c>
       <c r="M18" t="n">
-        <v>1877.19</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="19">
@@ -1278,31 +1278,31 @@
         <v>64</v>
       </c>
       <c r="E19" t="n">
-        <v>42039.88</v>
+        <v>42042</v>
       </c>
       <c r="F19" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G19" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H19" t="n">
-        <v>77.18518518518519</v>
+        <v>77.14814814814815</v>
       </c>
       <c r="I19" t="n">
-        <v>39977.61225925926</v>
+        <v>40668.88888888889</v>
       </c>
       <c r="J19" t="n">
         <v>111</v>
       </c>
       <c r="K19" t="n">
-        <v>106223.78</v>
+        <v>106602</v>
       </c>
       <c r="L19" t="n">
         <v>7</v>
       </c>
       <c r="M19" t="n">
-        <v>1877.19</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="20">
@@ -1323,31 +1323,31 @@
         <v>75</v>
       </c>
       <c r="E20" t="n">
-        <v>23229.63</v>
+        <v>24348</v>
       </c>
       <c r="F20" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G20" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H20" t="n">
-        <v>77.18518518518519</v>
+        <v>77.14814814814815</v>
       </c>
       <c r="I20" t="n">
-        <v>39977.61225925926</v>
+        <v>40668.88888888889</v>
       </c>
       <c r="J20" t="n">
         <v>111</v>
       </c>
       <c r="K20" t="n">
-        <v>106223.78</v>
+        <v>106602</v>
       </c>
       <c r="L20" t="n">
         <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>1877.19</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="21">
@@ -1368,31 +1368,31 @@
         <v>89</v>
       </c>
       <c r="E21" t="n">
-        <v>88863.38</v>
+        <v>88864</v>
       </c>
       <c r="F21" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G21" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H21" t="n">
-        <v>77.18518518518519</v>
+        <v>77.14814814814815</v>
       </c>
       <c r="I21" t="n">
-        <v>39977.61225925926</v>
+        <v>40668.88888888889</v>
       </c>
       <c r="J21" t="n">
         <v>111</v>
       </c>
       <c r="K21" t="n">
-        <v>106223.78</v>
+        <v>106602</v>
       </c>
       <c r="L21" t="n">
         <v>7</v>
       </c>
       <c r="M21" t="n">
-        <v>1877.19</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="22">
@@ -1413,31 +1413,31 @@
         <v>65</v>
       </c>
       <c r="E22" t="n">
-        <v>54384.49999999999</v>
+        <v>54385</v>
       </c>
       <c r="F22" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G22" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H22" t="n">
-        <v>77.18518518518519</v>
+        <v>77.14814814814815</v>
       </c>
       <c r="I22" t="n">
-        <v>39977.61225925926</v>
+        <v>40668.88888888889</v>
       </c>
       <c r="J22" t="n">
         <v>111</v>
       </c>
       <c r="K22" t="n">
-        <v>106223.78</v>
+        <v>106602</v>
       </c>
       <c r="L22" t="n">
         <v>7</v>
       </c>
       <c r="M22" t="n">
-        <v>1877.19</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="23">
@@ -1458,31 +1458,31 @@
         <v>69</v>
       </c>
       <c r="E23" t="n">
-        <v>26715.9</v>
+        <v>27042</v>
       </c>
       <c r="F23" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G23" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H23" t="n">
-        <v>77.18518518518519</v>
+        <v>77.14814814814815</v>
       </c>
       <c r="I23" t="n">
-        <v>39977.61225925926</v>
+        <v>40668.88888888889</v>
       </c>
       <c r="J23" t="n">
         <v>111</v>
       </c>
       <c r="K23" t="n">
-        <v>106223.78</v>
+        <v>106602</v>
       </c>
       <c r="L23" t="n">
         <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>1877.19</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="24">
@@ -1503,31 +1503,31 @@
         <v>67</v>
       </c>
       <c r="E24" t="n">
-        <v>44641.55</v>
+        <v>45118</v>
       </c>
       <c r="F24" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G24" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H24" t="n">
-        <v>77.18518518518519</v>
+        <v>77.14814814814815</v>
       </c>
       <c r="I24" t="n">
-        <v>39977.61225925926</v>
+        <v>40668.88888888889</v>
       </c>
       <c r="J24" t="n">
         <v>111</v>
       </c>
       <c r="K24" t="n">
-        <v>106223.78</v>
+        <v>106602</v>
       </c>
       <c r="L24" t="n">
         <v>7</v>
       </c>
       <c r="M24" t="n">
-        <v>1877.19</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="25">
@@ -1548,31 +1548,31 @@
         <v>73</v>
       </c>
       <c r="E25" t="n">
-        <v>39442.39999999999</v>
+        <v>40080</v>
       </c>
       <c r="F25" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G25" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H25" t="n">
-        <v>77.18518518518519</v>
+        <v>77.14814814814815</v>
       </c>
       <c r="I25" t="n">
-        <v>39977.61225925926</v>
+        <v>40668.88888888889</v>
       </c>
       <c r="J25" t="n">
         <v>111</v>
       </c>
       <c r="K25" t="n">
-        <v>106223.78</v>
+        <v>106602</v>
       </c>
       <c r="L25" t="n">
         <v>7</v>
       </c>
       <c r="M25" t="n">
-        <v>1877.19</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="26">
@@ -1593,31 +1593,31 @@
         <v>82</v>
       </c>
       <c r="E26" t="n">
-        <v>46567.2</v>
+        <v>47152</v>
       </c>
       <c r="F26" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G26" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H26" t="n">
-        <v>77.18518518518519</v>
+        <v>77.14814814814815</v>
       </c>
       <c r="I26" t="n">
-        <v>39977.61225925926</v>
+        <v>40668.88888888889</v>
       </c>
       <c r="J26" t="n">
         <v>111</v>
       </c>
       <c r="K26" t="n">
-        <v>106223.78</v>
+        <v>106602</v>
       </c>
       <c r="L26" t="n">
         <v>7</v>
       </c>
       <c r="M26" t="n">
-        <v>1877.19</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="27">
@@ -1638,31 +1638,31 @@
         <v>99</v>
       </c>
       <c r="E27" t="n">
-        <v>74539.38</v>
+        <v>74593</v>
       </c>
       <c r="F27" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G27" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H27" t="n">
-        <v>77.18518518518519</v>
+        <v>77.14814814814815</v>
       </c>
       <c r="I27" t="n">
-        <v>39977.61225925926</v>
+        <v>40668.88888888889</v>
       </c>
       <c r="J27" t="n">
         <v>111</v>
       </c>
       <c r="K27" t="n">
-        <v>106223.78</v>
+        <v>106602</v>
       </c>
       <c r="L27" t="n">
         <v>7</v>
       </c>
       <c r="M27" t="n">
-        <v>1877.19</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="28">
@@ -1680,34 +1680,34 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E28" t="n">
-        <v>106223.78</v>
+        <v>106602</v>
       </c>
       <c r="F28" t="n">
-        <v>12.66438356164384</v>
+        <v>12.65753424657534</v>
       </c>
       <c r="G28" t="n">
-        <v>7818.126407534246</v>
+        <v>8144.25</v>
       </c>
       <c r="H28" t="n">
-        <v>77.18518518518519</v>
+        <v>77.14814814814815</v>
       </c>
       <c r="I28" t="n">
-        <v>39977.61225925926</v>
+        <v>40668.88888888889</v>
       </c>
       <c r="J28" t="n">
         <v>111</v>
       </c>
       <c r="K28" t="n">
-        <v>106223.78</v>
+        <v>106602</v>
       </c>
       <c r="L28" t="n">
         <v>7</v>
       </c>
       <c r="M28" t="n">
-        <v>1877.19</v>
+        <v>2339</v>
       </c>
     </row>
   </sheetData>

--- a/reports/air_import_employee_kpis/Gulcin ERDIR.xlsx
+++ b/reports/air_import_employee_kpis/Gulcin ERDIR.xlsx
@@ -516,10 +516,10 @@
         <v>14455</v>
       </c>
       <c r="F2" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G2" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H2" t="n">
         <v>77.14814814814815</v>
@@ -561,10 +561,10 @@
         <v>24320</v>
       </c>
       <c r="F3" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G3" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H3" t="n">
         <v>77.14814814814815</v>
@@ -606,10 +606,10 @@
         <v>59007</v>
       </c>
       <c r="F4" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G4" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H4" t="n">
         <v>77.14814814814815</v>
@@ -651,10 +651,10 @@
         <v>48869</v>
       </c>
       <c r="F5" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G5" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H5" t="n">
         <v>77.14814814814815</v>
@@ -696,10 +696,10 @@
         <v>29348</v>
       </c>
       <c r="F6" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G6" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H6" t="n">
         <v>77.14814814814815</v>
@@ -741,10 +741,10 @@
         <v>19290</v>
       </c>
       <c r="F7" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G7" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H7" t="n">
         <v>77.14814814814815</v>
@@ -786,10 +786,10 @@
         <v>24778</v>
       </c>
       <c r="F8" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G8" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H8" t="n">
         <v>77.14814814814815</v>
@@ -831,10 +831,10 @@
         <v>37549</v>
       </c>
       <c r="F9" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G9" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H9" t="n">
         <v>77.14814814814815</v>
@@ -876,10 +876,10 @@
         <v>19464</v>
       </c>
       <c r="F10" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G10" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H10" t="n">
         <v>77.14814814814815</v>
@@ -921,10 +921,10 @@
         <v>54221</v>
       </c>
       <c r="F11" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G11" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H11" t="n">
         <v>77.14814814814815</v>
@@ -966,10 +966,10 @@
         <v>39558</v>
       </c>
       <c r="F12" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G12" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H12" t="n">
         <v>77.14814814814815</v>
@@ -1011,10 +1011,10 @@
         <v>18478</v>
       </c>
       <c r="F13" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G13" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H13" t="n">
         <v>77.14814814814815</v>
@@ -1056,10 +1056,10 @@
         <v>19956</v>
       </c>
       <c r="F14" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G14" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H14" t="n">
         <v>77.14814814814815</v>
@@ -1101,10 +1101,10 @@
         <v>32931</v>
       </c>
       <c r="F15" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G15" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H15" t="n">
         <v>77.14814814814815</v>
@@ -1146,10 +1146,10 @@
         <v>67135</v>
       </c>
       <c r="F16" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G16" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H16" t="n">
         <v>77.14814814814815</v>
@@ -1191,10 +1191,10 @@
         <v>36136</v>
       </c>
       <c r="F17" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G17" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H17" t="n">
         <v>77.14814814814815</v>
@@ -1236,10 +1236,10 @@
         <v>2339</v>
       </c>
       <c r="F18" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G18" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H18" t="n">
         <v>77.14814814814815</v>
@@ -1281,10 +1281,10 @@
         <v>42042</v>
       </c>
       <c r="F19" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G19" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H19" t="n">
         <v>77.14814814814815</v>
@@ -1326,10 +1326,10 @@
         <v>24348</v>
       </c>
       <c r="F20" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G20" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H20" t="n">
         <v>77.14814814814815</v>
@@ -1371,10 +1371,10 @@
         <v>88864</v>
       </c>
       <c r="F21" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G21" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H21" t="n">
         <v>77.14814814814815</v>
@@ -1416,10 +1416,10 @@
         <v>54385</v>
       </c>
       <c r="F22" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G22" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H22" t="n">
         <v>77.14814814814815</v>
@@ -1461,10 +1461,10 @@
         <v>27042</v>
       </c>
       <c r="F23" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G23" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H23" t="n">
         <v>77.14814814814815</v>
@@ -1506,10 +1506,10 @@
         <v>45118</v>
       </c>
       <c r="F24" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G24" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H24" t="n">
         <v>77.14814814814815</v>
@@ -1551,10 +1551,10 @@
         <v>40080</v>
       </c>
       <c r="F25" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G25" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H25" t="n">
         <v>77.14814814814815</v>
@@ -1596,10 +1596,10 @@
         <v>47152</v>
       </c>
       <c r="F26" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G26" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H26" t="n">
         <v>77.14814814814815</v>
@@ -1641,10 +1641,10 @@
         <v>74593</v>
       </c>
       <c r="F27" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G27" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H27" t="n">
         <v>77.14814814814815</v>
@@ -1686,10 +1686,10 @@
         <v>106602</v>
       </c>
       <c r="F28" t="n">
-        <v>12.65753424657534</v>
+        <v>43.83818163642726</v>
       </c>
       <c r="G28" t="n">
-        <v>8144.25</v>
+        <v>27033.43394811816</v>
       </c>
       <c r="H28" t="n">
         <v>77.14814814814815</v>
